--- a/Price List/Stepper_Motor_Controller.xlsx
+++ b/Price List/Stepper_Motor_Controller.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TH24\Desktop\Hardware\Robotic-Arm\Price List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F455B48-0DAF-45FC-ADE6-BBA06E270ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC412AB-1A7D-4864-9549-E2A75625F47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20100" yWindow="0" windowWidth="37680" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20040" yWindow="0" windowWidth="37680" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-Stepper-Motor Driv" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <definedName name="Print_Titles" localSheetId="0">'BOM_PartType-Stepper-Motor Driv'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
   <si>
     <t>Comment</t>
   </si>
@@ -59,21 +60,9 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>100uF 25 V dc Aluminium Electrolytic Capacitor; WT Series 1000h 6.3(Dia.)x7.7mm</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
-    <t>PCB-i2lbf4zom8ks3vbq1kyd-1</t>
-  </si>
-  <si>
-    <t>CMP-3b00f20907dbe4c7-1</t>
-  </si>
-  <si>
     <t>0.33uF</t>
   </si>
   <si>
@@ -116,9 +105,6 @@
     <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 50volts .22uF 5% X7R 7inch reel</t>
   </si>
   <si>
-    <t>C7, C8</t>
-  </si>
-  <si>
     <t>CAPC2013X140X50LL20T25</t>
   </si>
   <si>
@@ -155,36 +141,9 @@
     <t>CMP-2fd8e4750972f01f-1</t>
   </si>
   <si>
-    <t>Yageo RC0402JR-1310KL</t>
-  </si>
-  <si>
-    <t>YAGEO   RC0402JR-1310KL   THICK FILM RESISTOR, 10KOHM, 62.5mW, 5%</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>RESC1005X40X25LL05T10</t>
-  </si>
-  <si>
-    <t>CMP-3759243-2</t>
-  </si>
-  <si>
-    <t>Potentiometer 10k</t>
-  </si>
-  <si>
-    <t>Res Conductive Plastic POT 10K Ohm 20% 3/100W 1Turn 6mm Pin Bracket Mount/Through Hole</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
-    <t>PCB-obt52c5d0m95txgvi4qh-1</t>
-  </si>
-  <si>
-    <t>CMP-1577701-10</t>
-  </si>
-  <si>
     <t>20k</t>
   </si>
   <si>
@@ -212,24 +171,12 @@
     <t>CMP-86ed4a8b7141592a-1</t>
   </si>
   <si>
-    <t>Panasonic ERJ-2GEJ151X</t>
-  </si>
-  <si>
-    <t>Thick Film Resistors - SMD 0402 150ohms 5% Tol</t>
-  </si>
-  <si>
     <t>R7, R9, R10, R11, R12</t>
   </si>
   <si>
     <t>RESC1005X40X25ML05T05</t>
   </si>
   <si>
-    <t>CMP-3653280-2</t>
-  </si>
-  <si>
-    <t>5k</t>
-  </si>
-  <si>
     <t>Res Thin Film 0603 10K Ohm 0.5% 1/16W ±25ppm/°C Molded SMD SMD Paper T/R</t>
   </si>
   <si>
@@ -278,9 +225,6 @@
     <t>Links</t>
   </si>
   <si>
-    <t>https://www.arrow.com/en/products/uwt1e101mcl1gs/nichicon?utm_campaign=octopart_2020&amp;utm_currency=EUR&amp;utm_keyword=UWT1E101MCL1GS&amp;utm_medium=aggregator&amp;utm_content=inv_listing&amp;region=nac&amp;utm_source=octopart</t>
-  </si>
-  <si>
     <t>https://www.digikey.at/de/products/detail/CL31B334KBFNNNE/1276-1138-1-ND/3889224?utm_campaign=buynow&amp;utm_medium=aggregator&amp;curr=eur&amp;utm_source=octopart</t>
   </si>
   <si>
@@ -290,42 +234,24 @@
     <t>https://at.rs-online.com/web/p/keramik-vielschichtkondensatoren/1441425?cm_mmc=aff2-_-at-_-octopart-_-Instock1441425</t>
   </si>
   <si>
-    <t>2/ buy. 100</t>
-  </si>
-  <si>
     <t>https://www.digikey.at/de/products/detail/5988210107F/350-2047-2-ND/1291281?utm_campaign=buynow&amp;utm_medium=aggregator&amp;curr=eur&amp;utm_source=octopart</t>
   </si>
   <si>
     <t>https://www.mouser.at/ProductDetail/Vishay-Dale/CRCW080550R0FKTA?qs=aRXG1QX2Yl9J6LSLM7CpJQ%3D%3D</t>
   </si>
   <si>
-    <t>https://www.digikey.at/de/products/detail/te-connectivity-passive-product/CRGH2512J10K/2386138</t>
-  </si>
-  <si>
     <t>https://at.farnell.com/on-semiconductor/mc78l05acht1g/lin-spannungsregler-5v-0-1a-sot/dp/2845173?CMP=GRHB-OCTOPART</t>
   </si>
   <si>
-    <t>1/ buy. 5</t>
-  </si>
-  <si>
     <t>https://at.farnell.com/allegro-microsystems/a4988settr-t/motor-driver-stepper-2a-qfn-28/dp/2057418?CMP=GRHB-OCTOPART</t>
   </si>
   <si>
-    <t>https://www.digikey.at/de/products/detail/P090L-02F25BR10K/987-1274-ND/2408851?utm_campaign=buynow&amp;utm_medium=aggregator&amp;curr=eur&amp;utm_source=octopart</t>
-  </si>
-  <si>
     <t>https://www.digikey.at/de/products/detail/TNPW080520K0BEEA/TNP20.0KABCT-ND/1857107?utm_campaign=buynow&amp;utm_medium=aggregator&amp;curr=eur&amp;utm_source=octopart</t>
   </si>
   <si>
     <t>https://www.digikey.at/de/products/detail/CRGCQ0402F100K/A129651CT-ND/8577483?utm_campaign=buynow&amp;utm_medium=aggregator&amp;curr=eur&amp;utm_source=octopart</t>
   </si>
   <si>
-    <t>https://www.digikey.at/de/products/detail/ERJ-2GEJ151X/P150JCT-ND/146873?utm_campaign=buynow&amp;utm_medium=aggregator&amp;curr=eur&amp;utm_source=octopart</t>
-  </si>
-  <si>
-    <t>https://www.mouser.at/ProductDetail/Vishay-Dale/TNPW02015K00BEED?qs=sGAEpiMZZMtlubZbdhIBICIdKqKHY0hXivjxIjQMJ0k%3D</t>
-  </si>
-  <si>
     <t>JLCPCB - 2 Layer - Black PCB + SMD Stencil</t>
   </si>
   <si>
@@ -342,6 +268,90 @@
   </si>
   <si>
     <t>Preis pro 5 Stück (Robot Arm)</t>
+  </si>
+  <si>
+    <t>470nF</t>
+  </si>
+  <si>
+    <t>Cap Ceramic 0.47uF 10V X5R 20% SMD 0402 85°C T/R</t>
+  </si>
+  <si>
+    <t>PCB-ab16gx9rkhzdcptx7kd3-1</t>
+  </si>
+  <si>
+    <t>CMP-c29e0abbad7d1d59-2</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/en/products/detail/0402ZD474MAT2A/478-13018-1-ND/9948536?curr=usd&amp;utm_campaign=buynow&amp;utm_medium=aggregator&amp;utm_source=octopart</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>2.2k</t>
+  </si>
+  <si>
+    <t>1Ohm No short circuit</t>
+  </si>
+  <si>
+    <t>CMP-2002-08342-1</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>RES SMD 10K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>FP-CRCW0402-e3-IPC_B</t>
+  </si>
+  <si>
+    <t>CMP-2002-08135-2</t>
+  </si>
+  <si>
+    <t>100kOhm</t>
+  </si>
+  <si>
+    <t>Chip Resistor, 100 KOhm, +/- 1%, 0.125 W, -55 to 155 degC, 0805 (2012 Metric), RoHS, Tape and Reel</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>RESC2013X60X35ML10T20</t>
+  </si>
+  <si>
+    <t>CMP-2100-03668-1</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF2401X</t>
+  </si>
+  <si>
+    <t>RESC1005X40X25NL05T05</t>
+  </si>
+  <si>
+    <t>CMP-2002-00798-1</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/en/products/detail/panasonic-electronic-components/ERJ-2RKF2401X/1746161?s=N4IgTCBcDaIKICUBSBaMCDSAxMAWADAIwAaIAugL5A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/de/products/detail/bourns-inc./CR0805-JW-104ELF/3925418</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/en/products/detail/te-connectivity-passive-product/352210KFT/5244971</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/en/products/detail/rohm-semiconductor/KTR03EZPF1R00/2288554</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/en/products/detail/panasonic-electronic-components/ERA-2ARC222X/5140972</t>
+  </si>
+  <si>
+    <t>1/buy. 5</t>
   </si>
 </sst>
 </file>
@@ -430,7 +440,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -478,17 +488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -506,22 +505,23 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Berechnung" xfId="1" builtinId="22"/>
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -875,463 +875,490 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6">
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9">
         <v>1</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G3" s="4">
         <v>0.33</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="H3" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6">
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="9">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4">
+        <f>0.18*F4</f>
+        <v>0.54</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="9">
         <v>1</v>
       </c>
-      <c r="G3" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="G5" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="6">
-        <v>3</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1.68</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="E6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="F6" s="9">
         <v>1</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G6" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="H6" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
+        <f>0.29*F7</f>
+        <v>1.45</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="9">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <f>1.4*F8</f>
+        <v>2.8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="9">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4">
+        <f>0.51*F12</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="6">
-        <v>5</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="B13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="6">
-        <v>2</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="B14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="6">
-        <v>0.67</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="G14" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="9">
         <v>1</v>
       </c>
-      <c r="G10" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="G15" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="9">
         <v>1</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.69</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="G16" s="4">
+        <v>2.17</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="B17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="C17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="D17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="E17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="6">
-        <v>5</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="F17" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="4">
+        <f>5.72/5</f>
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="5" t="s">
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6">
-        <v>2.17</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="G19" s="5">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="F23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="6">
+        <f>SUM(G2:G17)+G19</f>
+        <v>24.833999999999996</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="5" t="s">
+    </row>
+    <row r="24" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F24" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="6">
-        <v>5.73</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="7">
-        <v>9.1199999999999992</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="F23" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="8">
-        <f>SUM(G2:G19)</f>
-        <v>27.723999999999997</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F24" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="8">
-        <f>SUM(G7:G15)*5 + SUM(G2:G5)*5 + G19 + G16 + G6</f>
-        <v>69.62</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>98</v>
+      <c r="G24" s="6">
+        <f>SUM(G2:G17)*5 + G19</f>
+        <v>87.69</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{28ECB09C-D43D-4696-B220-38E8927273ED}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{DB9A2DBE-EF2D-40CD-B46C-360DFF02377C}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{DB20AF5B-8864-4713-8F59-766B74D6276C}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{94B00D36-874D-4A45-B438-AB718674E03D}"/>
-    <hyperlink ref="H6" r:id="rId5" xr:uid="{1F8445F0-C6A3-4FC1-9DD9-C4E1C5CA4471}"/>
-    <hyperlink ref="H7" r:id="rId6" xr:uid="{A11BCA51-3ED1-4AE4-A252-D74B0FB36703}"/>
-    <hyperlink ref="H8" r:id="rId7" xr:uid="{99CE81B8-B07F-4A30-93A0-5AE12DFF5914}"/>
-    <hyperlink ref="H9" r:id="rId8" xr:uid="{D03AC246-0B5A-40F0-A983-4A5F770C1D0D}"/>
-    <hyperlink ref="H16" r:id="rId9" xr:uid="{C0BFA381-3D60-4446-835B-5A93B58F2F92}"/>
-    <hyperlink ref="H15" r:id="rId10" xr:uid="{E8793580-48DC-4646-93DC-41DE36C93371}"/>
-    <hyperlink ref="H10" r:id="rId11" xr:uid="{4DF372E1-EC2E-4B12-B459-B66BE4DB5DA3}"/>
-    <hyperlink ref="H11" r:id="rId12" xr:uid="{D135066A-A7F9-4800-858B-464E5450D92B}"/>
-    <hyperlink ref="H12" r:id="rId13" xr:uid="{454F018D-7FA5-438C-835D-32316EBA1913}"/>
-    <hyperlink ref="H13" r:id="rId14" xr:uid="{C1F40750-B89B-4DBB-8A4B-DD8A13A41FA3}"/>
-    <hyperlink ref="H14" r:id="rId15" xr:uid="{D1373C10-0F76-45FB-87C2-ADDAE081CC99}"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{5385F00E-2051-474D-A201-07116EACC4B0}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{5E6038EA-E4D9-4A13-9AAD-60B89CEB364F}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{AFCBE385-D7C2-49F0-9E83-ED25F359E346}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{028B26CB-1389-4655-A15A-02E538DCD63D}"/>
+    <hyperlink ref="H7" r:id="rId5" xr:uid="{CE5E73B3-B56B-4EB2-A1D4-371D2913C942}"/>
+    <hyperlink ref="H8" r:id="rId6" xr:uid="{A3934478-FFE9-44F9-8492-92D86D6D35C0}"/>
+    <hyperlink ref="H17" r:id="rId7" xr:uid="{ADF0363C-C7AA-45CE-80B5-D46C9636D545}"/>
+    <hyperlink ref="H16" r:id="rId8" xr:uid="{33FCF808-9372-4E7F-8EDE-86B1FC109A80}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{4C56058B-716D-4822-81ED-D35AC52C76E2}"/>
+    <hyperlink ref="H11" r:id="rId10" xr:uid="{0E9C0B85-B68C-4449-B179-D22707B60733}"/>
+    <hyperlink ref="H15" r:id="rId11" xr:uid="{2CF56F7F-540E-4C4A-805D-DE6C42F6AC76}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/Price List/Stepper_Motor_Controller.xlsx
+++ b/Price List/Stepper_Motor_Controller.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TH24\Desktop\Hardware\Robotic-Arm\Price List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC412AB-1A7D-4864-9549-E2A75625F47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED3809B8-5FCA-4D05-9EE2-1EE97B205856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20040" yWindow="0" windowWidth="37680" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24915" yWindow="1035" windowWidth="23190" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-Stepper-Motor Driv" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <definedName name="Print_Titles" localSheetId="0">'BOM_PartType-Stepper-Motor Driv'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -267,9 +266,6 @@
     <t>Preis pro Stück</t>
   </si>
   <si>
-    <t>Preis pro 5 Stück (Robot Arm)</t>
-  </si>
-  <si>
     <t>470nF</t>
   </si>
   <si>
@@ -352,6 +348,9 @@
   </si>
   <si>
     <t>1/buy. 5</t>
+  </si>
+  <si>
+    <t>Preis pro 3 Stück (Robot Arm)</t>
   </si>
 </sst>
 </file>
@@ -390,6 +389,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -843,7 +843,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -883,19 +883,19 @@
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="F2" s="9">
         <v>1</v>
@@ -904,7 +904,7 @@
         <v>0.46</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>22</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>1</v>
@@ -1077,10 +1077,10 @@
         <v>34</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="F9" s="9">
         <v>1</v>
@@ -1089,7 +1089,7 @@
         <v>0.09</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -1146,7 +1146,7 @@
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>46</v>
@@ -1168,12 +1168,12 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>1</v>
@@ -1185,7 +1185,7 @@
         <v>45</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13" s="9">
         <v>1</v>
@@ -1194,24 +1194,24 @@
         <v>0.15</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="F14" s="9">
         <v>1</v>
@@ -1220,24 +1220,24 @@
         <v>0.92</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="F15" s="9">
         <v>1</v>
@@ -1246,7 +1246,7 @@
         <v>0.09</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -1292,7 +1292,7 @@
         <v>59</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G17" s="4">
         <f>5.72/5</f>
@@ -1333,11 +1333,11 @@
     </row>
     <row r="24" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F24" s="7" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="G24" s="6">
-        <f>SUM(G2:G17)*5 + G19</f>
-        <v>87.69</v>
+        <f>SUM(G2:G17)*3 + G19</f>
+        <v>56.261999999999993</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>73</v>

--- a/Price List/Stepper_Motor_Controller.xlsx
+++ b/Price List/Stepper_Motor_Controller.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TH24\Desktop\Hardware\Robotic-Arm\Price List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED3809B8-5FCA-4D05-9EE2-1EE97B205856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F7E35F-4120-44B9-925D-8B5987EDE717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24915" yWindow="1035" windowWidth="23190" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="750" windowWidth="26025" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-Stepper-Motor Driv" sheetId="1" r:id="rId1"/>
@@ -357,7 +357,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
@@ -407,8 +407,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +448,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -510,7 +539,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -522,6 +551,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Berechnung" xfId="1" builtinId="22"/>
@@ -843,7 +877,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -882,7 +916,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -908,7 +942,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -934,7 +968,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -961,7 +995,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -987,7 +1021,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1013,7 +1047,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1040,7 +1074,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1067,7 +1101,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1093,7 +1127,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1119,7 +1153,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1145,7 +1179,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1172,7 +1206,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1198,7 +1232,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1224,7 +1258,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -1250,7 +1284,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1276,7 +1310,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -1320,6 +1354,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="B23" s="15"/>
       <c r="F23" s="7" t="s">
         <v>75</v>
       </c>
@@ -1356,9 +1391,10 @@
     <hyperlink ref="H10" r:id="rId9" xr:uid="{4C56058B-716D-4822-81ED-D35AC52C76E2}"/>
     <hyperlink ref="H11" r:id="rId10" xr:uid="{0E9C0B85-B68C-4449-B179-D22707B60733}"/>
     <hyperlink ref="H15" r:id="rId11" xr:uid="{2CF56F7F-540E-4C4A-805D-DE6C42F6AC76}"/>
+    <hyperlink ref="H13" r:id="rId12" xr:uid="{1AFB9329-E23F-49CD-AA92-60F1E281D0BF}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
